--- a/CreateScripts/Darrian/Records/FINSIHED_ORDER.xlsx
+++ b/CreateScripts/Darrian/Records/FINSIHED_ORDER.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_C8EBC67FE2A33336071C0C74B1B788E02C73F02E" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7A2A0027-59E3-445D-BBE0-7181EC0C6ED2}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darri\Documents\GitHub\CIS3365\CreateScripts\Darrian\Records\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5B9956-C001-47CD-A249-82904749E8CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9870" yWindow="5955" windowWidth="15225" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -18,7 +23,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ORDER_ID</t>
   </si>
@@ -42,15 +46,25 @@
   <si>
     <t>QUALITY</t>
   </si>
+  <si>
+    <t>CUSTOMER_ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,8 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,21 +409,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,6 +439,79 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>14580</v>
+      </c>
+      <c r="B2" s="1">
+        <v>14580</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43550</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>5964</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5964</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44223</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>5959</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5959</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44214</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5956</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5956</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44208</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5935</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5935</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44175</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -435,15 +526,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F9496591E87E6B43B723AE20E6EEE6F2" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5abb67ef7e345ce9725832975159a551">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="351fd5e3-c834-48b3-88b8-b9d0689c8e02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9fce2e76832725649a8fa2a9f44068ce" ns2:_="">
     <xsd:import namespace="351fd5e3-c834-48b3-88b8-b9d0689c8e02"/>
@@ -575,14 +657,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39C08755-541F-4A71-B200-A49D88F6F914}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39C08755-541F-4A71-B200-A49D88F6F914}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A3D9F64-348F-4DCA-8E95-DA36EA73E77E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2133A459-85A3-4A15-BCA1-F021326AD251}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="351fd5e3-c834-48b3-88b8-b9d0689c8e02"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2133A459-85A3-4A15-BCA1-F021326AD251}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A3D9F64-348F-4DCA-8E95-DA36EA73E77E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>